--- a/Data Files/Backoffice/Match.xlsx
+++ b/Data Files/Backoffice/Match.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Arena_Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Wala_Weight</t>
   </si>
   <si>
-    <t>Arena 1</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>Weight 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena_Acronym </t>
+  </si>
+  <si>
+    <t>AZNAR TALISAY SPORTS COMPLEX</t>
+  </si>
+  <si>
+    <t>AZNAR TALISAY SPORTS COMPLEX - ATSC</t>
   </si>
 </sst>
 </file>
@@ -398,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
@@ -415,11 +421,11 @@
     <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,34 +453,40 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Backoffice/Match.xlsx
+++ b/Data Files/Backoffice/Match.xlsx
@@ -80,10 +80,10 @@
     <t xml:space="preserve">Arena_Acronym </t>
   </si>
   <si>
-    <t>AZNAR TALISAY SPORTS COMPLEX</t>
-  </si>
-  <si>
-    <t>AZNAR TALISAY SPORTS COMPLEX - ATSC</t>
+    <t>PASIG SQUARE GARDEN</t>
+  </si>
+  <si>
+    <t>PASIG SQUARE GARDEN - PSG</t>
   </si>
 </sst>
 </file>
@@ -406,13 +406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
